--- a/assets/text.xlsx
+++ b/assets/text.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Kochnev\PUBLIC\securitycrisis_dashboard\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\Projects\Academic\wiiw_projects\dashboarddb\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{FEC4E858-C506-4CA2-BAB2-301222E49B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE52F3B-4F91-4795-BEA0-0EB6533F28A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>paragraph</t>
   </si>
@@ -69,7 +66,64 @@
     <t>The Ukrainian economy so far has shown remarkable macro-financial resilience. However, this may change as many companies stop functioning and as unemployment rises. Banks will face substantial losses, due to the damage caused to their physical assets and the high probability of defaults on many loans. Western financial support will become ever more important as the war continues.</t>
   </si>
   <si>
-    <t>Turning to Russia, sanctions will have a very serious impact on that country’s economy and financial sector. wiiw estimate that Russian GDP will contract by at least 7-8% this year and inflation will accelerate to close to 30% by the end of 2022. During the first week of the crisis, Russia faced capital flight, FX depreciation and deposit outflows. However, the range of estimates in the economists' community is broad with some analysts predicting the GDP contraction by 15% within a year. Despite being partly hamstrung by the fact that a large proportion of Russian reserve assets are frozen in the EU and G7, the central bank managed to stabilise financial markets by a combination of confidence-building and hard-steering measures: capital controls, FX controls, regulatory easing for financial institutions, and a doubling of the key policy rate. Although these measures were effective in curtailing financial panic, they further undermined investor confidence and increased the costs of borrowing for business. The fiscal stimulus so far announced is very limited, especially considering the likely scale of the contraction, and is not going to offset a sharp decline in real household incomes in 2022.</t>
+    <t>label</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>key_damage</t>
+  </si>
+  <si>
+    <t>ukraine_costs</t>
+  </si>
+  <si>
+    <t>ukraine_macro</t>
+  </si>
+  <si>
+    <t>russia_economy</t>
+  </si>
+  <si>
+    <t>europe_inflation</t>
+  </si>
+  <si>
+    <t>europe_trade_exposure</t>
+  </si>
+  <si>
+    <t>europe_energy</t>
+  </si>
+  <si>
+    <t>europe_finance</t>
+  </si>
+  <si>
+    <t>outlook_ukraine</t>
+  </si>
+  <si>
+    <t>outlook_russia</t>
+  </si>
+  <si>
+    <t>outlook_eu</t>
+  </si>
+  <si>
+    <t>russia_policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turning to Russia, sanctions will have a very serious impact on that country’s economy and financial sector. wiiw estimate that Russian GDP will contract by at least 7-8% this year and inflation will accelerate to close to 30% by the end of 2022. During the first week of the crisis, Russia faced capital flight, FX depreciation and deposit outflows. However, the range of estimates in the economists' community is broad with some analysts predicting the GDP contraction by 15% within a year. </t>
+  </si>
+  <si>
+    <t>Despite being partly hamstrung by the fact that a large proportion of Russian reserve assets are frozen in the EU and G7, the central bank managed to stabilise financial markets by a combination of confidence-building and hard-steering measures: capital controls, FX controls, regulatory easing for financial institutions, and a doubling of the key policy rate. Although these measures were effective in curtailing financial panic, they further undermined investor confidence and increased the costs of borrowing for business. The fiscal stimulus so far announced is very limited, especially considering the likely scale of the contraction, and is not going to offset a sharp decline in real household incomes in 2022.</t>
+  </si>
+  <si>
+    <t>europe_refugees</t>
+  </si>
+  <si>
+    <t>policies</t>
+  </si>
+  <si>
+    <t>russia_sanctions</t>
+  </si>
+  <si>
+    <t>There are several caveats surrounding the sanctions' impact. First, quantity is not quality. Most of the sanctions impose restrictions on individuals and have a limited impact on the aggregate economy. Most importantly, the EU has still not imposed an energy embargo, which would have the biggest impact on the Russian fiscal position. Second, it is impossible to effectively impose sanctions exclusively against elites, without harming the general population. Sector-wide sanctions will cause hardship for ordinary Russians, but even individual-related sanctions do not avoid collateral damage. Evidence from Russia and other countries suggests that governments are likely to compensate the elites for their losses at the expense of taxpayers. There is a high chance that campaigns to boycott all Russian public institutions, together with the exodus of Western franchises from the Russian market, will affect mainly well-educated Russians living in big cities – those very people who value individuality over grand political achievements, who deliver and consume diverse media content, and who are most critical of the Putin regime. With their income opportunities and information flows constrained, they will become more dependent on state-provided revenues. This, in turn, will increase the likelihood that they are co-opted and that the anti-Western sentiment in Russia will harden.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -135,6 +189,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -441,138 +501,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
+    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="119.75" style="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    </row>
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    </row>
+    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    </row>
+    <row r="13" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    </row>
+    <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    </row>
+    <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    </row>
+    <row r="16" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="17" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/assets/text.xlsx
+++ b/assets/text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\Projects\Academic\wiiw_projects\dashboarddb\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE52F3B-4F91-4795-BEA0-0EB6533F28A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF5A52F-B8E4-4E5F-A428-C11E49BA5EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>paragraph</t>
   </si>
@@ -57,9 +57,6 @@
     <t>As a result of the war and the sanctions, the rest of Europe faces a surge in already high inflation; this will weigh on real incomes and could depress economic growth. In Germany, we estimate that each doubling of the gas price causes GDP to decline by over 1 percentage point. Many European countries rely heavily on Russia for oil and gas imports: import shares are over 75% in Czechia, Latvia, Hungary, Slovakia and Bulgaria with respect to natural gas; Slovakia, Lithuania, Poland and Finland with respect to oil and petroleum; and Cyprus, Estonia, Latvia, Denmark, Lithuania, Greece and Bulgaria with respect to solid fuels.</t>
   </si>
   <si>
-    <t>The Russian invasion of Ukraine has triggered a humanitarian, economic, financial and political crisis that will reverberate across Europe. Much of Ukraine is already devastated by the war, with around 19m people and over half of the country’s GDP in the regions currently directly affected. Meanwhile we estimate that Russian GDP will contract by 7-8% this year, and inflation will accelerate to close to 30% by the end of 2022. For the rest of Europe, the impact will be felt via various channels, with the most significant so far being inflation on the back of high energy prices. If the EU were to ban imports of energy from Russia, or if Russia itself limits or stops gas exports to the EU, the trade impacts would be much more significant. The medium- and long-term outlook for Ukraine, Russia and the rest of Europe has been changed radically by the events of the last few weeks. For Ukraine, if one part of the country is occupied and the other part remains independent, economic outcomes will be very divergent, but the non-occupied part would see many refugees return, would receive massive Western financial support and could look forward to greater integration with the EU. For Russia, the economy will lose its access to Western technological transfer, and this cannot be fully compensated by China; an already meagre medium-term growth outlook has now deteriorated further. Meanwhile there are four main areas of structural change and lasting impact for the EU and Europe more broadly: the EU will get more serious about defence, the green transition will gather pace, broader Eurasian economic integration will be unwound, and the EU accession prospects for countries in Southeast Europe could (and should) improve.</t>
-  </si>
-  <si>
     <t>The economic costs of the invasion in Ukraine will be profound. Available estimates put the damage and destruction of physical infrastructure so far at USD 62.6bn. However, the cost of making good those losses is likely to be much higher. The regions of Ukraine that are currently directly affected by the conflict account for 53% of GDP. About one third of industrial and agricultural production, and about a quarter of exports originate in the conflict regions (excluding Kyiv city). Economic activity has practically ceased in the affected regions. With the Black Sea ports being blocked, Ukraine has lost its ability to sell more than half of its exports, primarily agricultural commodities and metals. Merchandise exports accounted for more than a third of the country’s GDP in 2021.</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>summary</t>
-  </si>
-  <si>
     <t>key_damage</t>
   </si>
   <si>
@@ -124,6 +118,18 @@
   </si>
   <si>
     <t>There are several caveats surrounding the sanctions' impact. First, quantity is not quality. Most of the sanctions impose restrictions on individuals and have a limited impact on the aggregate economy. Most importantly, the EU has still not imposed an energy embargo, which would have the biggest impact on the Russian fiscal position. Second, it is impossible to effectively impose sanctions exclusively against elites, without harming the general population. Sector-wide sanctions will cause hardship for ordinary Russians, but even individual-related sanctions do not avoid collateral damage. Evidence from Russia and other countries suggests that governments are likely to compensate the elites for their losses at the expense of taxpayers. There is a high chance that campaigns to boycott all Russian public institutions, together with the exodus of Western franchises from the Russian market, will affect mainly well-educated Russians living in big cities – those very people who value individuality over grand political achievements, who deliver and consume diverse media content, and who are most critical of the Putin regime. With their income opportunities and information flows constrained, they will become more dependent on state-provided revenues. This, in turn, will increase the likelihood that they are co-opted and that the anti-Western sentiment in Russia will harden.</t>
+  </si>
+  <si>
+    <t>summary_long_effects</t>
+  </si>
+  <si>
+    <t>summary_short_effects</t>
+  </si>
+  <si>
+    <t>The Russian invasion of Ukraine has triggered a humanitarian, economic, financial and political crisis that will reverberate across Europe. Much of Ukraine is already devastated by the war, with around 19m people and over half of the country’s GDP in the regions currently directly affected. Meanwhile we estimate that Russian GDP will contract by 7-8% this year, and inflation will accelerate to close to 30% by the end of 2022. For the rest of Europe, the impact will be felt via various channels, with the most significant so far being inflation on the back of high energy prices. If the EU were to ban imports of energy from Russia, or if Russia itself limits or stops gas exports to the EU, the trade impacts would be much more significant.</t>
+  </si>
+  <si>
+    <t>The medium- and long-term outlook for Ukraine, Russia and the rest of Europe has been changed radically by the events of the last few weeks. For Ukraine, if one part of the country is occupied and the other part remains independent, economic outcomes will be very divergent, but the non-occupied part would see many refugees return, would receive massive Western financial support and could look forward to greater integration with the EU. For Russia, the economy will lose its access to Western technological transfer, and this cannot be fully compensated by China; an already meagre medium-term growth outlook has now deteriorated further. Meanwhile there are four main areas of structural change and lasting impact for the EU and Europe more broadly: the EU will get more serious about defence, the green transition will gather pace, broader Eurasian economic integration will be unwound, and the EU accession prospects for countries in Southeast Europe could (and should) improve.</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -516,142 +522,150 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
